--- a/게임 디자인/DB/스킬DB.xlsx
+++ b/게임 디자인/DB/스킬DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\EXLIX\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\샴블즈\Exlix\게임 디자인\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218410DD-3FE0-4CB0-A642-D638F88CE934}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D9B73F-796E-4CC7-A52B-83D892789D42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="2520" windowWidth="24075" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13905" yWindow="105" windowWidth="24285" windowHeight="14655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,48 +25,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
-  <si>
-    <t>타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발동 조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>발동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정한 적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,59 +55,203 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿨타임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나를 1 회복한다.</t>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복</t>
+  </si>
+  <si>
+    <t>타격</t>
+  </si>
+  <si>
+    <t>방어</t>
+  </si>
+  <si>
+    <t>드로</t>
+  </si>
+  <si>
+    <t>명상</t>
+  </si>
+  <si>
+    <t>희생</t>
+  </si>
+  <si>
+    <t>피의 갈증</t>
+  </si>
+  <si>
+    <t>민첩한 하루</t>
+  </si>
+  <si>
+    <t>재사용</t>
+  </si>
+  <si>
+    <t>가시 방패</t>
+  </si>
+  <si>
+    <t>체력을 1 회복한다.</t>
+  </si>
+  <si>
+    <t>적에게 1 피해를 입힌다.</t>
+  </si>
+  <si>
+    <t>방어도를 2 얻는다.</t>
+  </si>
+  <si>
+    <t>카드를 1장 뽑는다.</t>
+  </si>
+  <si>
+    <t>패에 있는 카드를 전부 버리고 버린 카드 수만큼 체력을 회복한다.</t>
+  </si>
+  <si>
+    <t>이번 턴에 사용한 카드 수만큼 체력을 회복한다.</t>
+  </si>
+  <si>
+    <t>이번 턴 동안 민첩이 10 증가한다.</t>
+  </si>
+  <si>
+    <t>마지막으로 사용한 카드 1장을 묘지에서 패로 가져온다.</t>
+  </si>
+  <si>
+    <t>방어도를 2얻고 적 전체에게 1 피해를 입힌다.</t>
+  </si>
+  <si>
+    <t>지정적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HE대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스턴대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출혈대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암전대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약화대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중독대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화상대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>본인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특수효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿨타임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력을 3회복한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후리기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정한 적에게 7데미지를 입힌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
+    <t>희생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피의갈증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -147,35 +259,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>한턴 동안 민첩이 5증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>본인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최후의 발악</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정한 적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력이 10%미만일 때 지정한 적에게 &lt;br/&gt;20만큼의 데미지를 입힌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력이 10%미만</t>
+    <t>재사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부식대상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -199,33 +295,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -233,45 +311,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,168 +603,327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="10.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="30.875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="23.75" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9" style="2"/>
-    <col min="16" max="16" width="9" style="1"/>
+    <col min="1" max="1" width="9.25" style="2" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="57.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="2" customWidth="1"/>
+    <col min="7" max="18" width="8.625" style="2" customWidth="1"/>
+    <col min="19" max="27" width="9" style="2"/>
+    <col min="28" max="28" width="14.375" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="5" t="s">
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="4">
-        <v>3</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="4">
-        <v>7</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
+      <c r="B5" s="2">
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="4">
-        <v>20</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/게임 디자인/DB/스킬DB.xlsx
+++ b/게임 디자인/DB/스킬DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\샴블즈\Exlix\게임 디자인\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D9B73F-796E-4CC7-A52B-83D892789D42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B530850-DEB6-49C8-92EC-6328EBBD01FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13905" yWindow="105" windowWidth="24285" windowHeight="14655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24525" yWindow="750" windowWidth="13590" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,46 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿨타임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지속턴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스턴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출혈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>약화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중독</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마나를 1 회복한다.</t>
   </si>
   <si>
@@ -130,14 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,42 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AT대상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH대상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HE대상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스턴대상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출혈대상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암전대상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>약화대상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중독대상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화상대상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>본인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,11 +183,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>부식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부식대상</t>
+    <t>skill_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cool_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active_turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT_tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH_tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HE_tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun_tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bleeding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bleeding_tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brun_tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark_tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weakness_tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weakness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toxic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toxic_tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corrosion-tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corrosion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -614,44 +614,47 @@
     <col min="1" max="1" width="9.25" style="2" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="57.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="2" customWidth="1"/>
-    <col min="7" max="18" width="8.625" style="2" customWidth="1"/>
-    <col min="19" max="27" width="9" style="2"/>
+    <col min="5" max="15" width="10.625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.875" style="2" customWidth="1"/>
+    <col min="17" max="21" width="10.625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="11.875" style="2" customWidth="1"/>
+    <col min="23" max="25" width="10.625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="13.125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="10.625" style="2" customWidth="1"/>
     <col min="28" max="28" width="14.375" style="2" customWidth="1"/>
     <col min="29" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -663,49 +666,49 @@
         <v>6</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>65</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
@@ -716,19 +719,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
@@ -739,19 +742,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
@@ -762,19 +765,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
@@ -785,145 +788,145 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/게임 디자인/DB/스킬DB.xlsx
+++ b/게임 디자인/DB/스킬DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\EXLIX\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\샴블즈\Exlix\게임 디자인\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218410DD-3FE0-4CB0-A642-D638F88CE934}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B530850-DEB6-49C8-92EC-6328EBBD01FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="2520" windowWidth="24075" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24525" yWindow="750" windowWidth="13590" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,48 +25,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
-  <si>
-    <t>타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발동 조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>발동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정한 적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,59 +55,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나를 1 회복한다.</t>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복</t>
+  </si>
+  <si>
+    <t>타격</t>
+  </si>
+  <si>
+    <t>방어</t>
+  </si>
+  <si>
+    <t>드로</t>
+  </si>
+  <si>
+    <t>명상</t>
+  </si>
+  <si>
+    <t>희생</t>
+  </si>
+  <si>
+    <t>피의 갈증</t>
+  </si>
+  <si>
+    <t>민첩한 하루</t>
+  </si>
+  <si>
+    <t>재사용</t>
+  </si>
+  <si>
+    <t>가시 방패</t>
+  </si>
+  <si>
+    <t>체력을 1 회복한다.</t>
+  </si>
+  <si>
+    <t>적에게 1 피해를 입힌다.</t>
+  </si>
+  <si>
+    <t>방어도를 2 얻는다.</t>
+  </si>
+  <si>
+    <t>카드를 1장 뽑는다.</t>
+  </si>
+  <si>
+    <t>패에 있는 카드를 전부 버리고 버린 카드 수만큼 체력을 회복한다.</t>
+  </si>
+  <si>
+    <t>이번 턴에 사용한 카드 수만큼 체력을 회복한다.</t>
+  </si>
+  <si>
+    <t>이번 턴 동안 민첩이 10 증가한다.</t>
+  </si>
+  <si>
+    <t>마지막으로 사용한 카드 1장을 묘지에서 패로 가져온다.</t>
+  </si>
+  <si>
+    <t>방어도를 2얻고 적 전체에게 1 피해를 입힌다.</t>
+  </si>
+  <si>
+    <t>지정적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>본인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특수효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿨타임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력을 3회복한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후리기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정한 적에게 7데미지를 입힌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
+    <t>희생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피의갈증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -147,35 +175,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>한턴 동안 민첩이 5증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>본인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최후의 발악</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정한 적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력이 10%미만일 때 지정한 적에게 &lt;br/&gt;20만큼의 데미지를 입힌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력이 10%미만</t>
+    <t>재사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cool_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active_turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT_tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH_tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HE_tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun_tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bleeding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bleeding_tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brun_tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark_tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weakness_tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weakness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toxic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toxic_tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corrosion-tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corrosion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -199,33 +295,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -233,45 +311,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,168 +603,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="10.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="30.875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="23.75" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9" style="2"/>
-    <col min="16" max="16" width="9" style="1"/>
+    <col min="1" max="1" width="9.25" style="2" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="57.375" style="2" customWidth="1"/>
+    <col min="5" max="15" width="10.625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.875" style="2" customWidth="1"/>
+    <col min="17" max="21" width="10.625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="11.875" style="2" customWidth="1"/>
+    <col min="23" max="25" width="10.625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="13.125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="10.625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="14.375" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="4">
-        <v>7</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="4">
-        <v>20</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
